--- a/dati.xlsx
+++ b/dati.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nballari\wpy\notebook\docs\test_prove\cruscotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42364905-E04A-433F-84E8-E9E78BC2828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0F6FD-DD6A-4E5B-9DBE-7BE6250461BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{6653B1A9-396C-4738-AC4E-0997E5E5EA04}"/>
+    <workbookView xWindow="-28920" yWindow="-510" windowWidth="29040" windowHeight="15840" tabRatio="466" activeTab="2" xr2:uid="{6653B1A9-396C-4738-AC4E-0997E5E5EA04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="conf" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
   <si>
     <t>AZIENDA 1</t>
   </si>
@@ -170,6 +171,39 @@
   </si>
   <si>
     <t>turno</t>
+  </si>
+  <si>
+    <t>Brand reputation_i</t>
+  </si>
+  <si>
+    <t>Indicatori aziendali</t>
+  </si>
+  <si>
+    <t>AZIENDA 2</t>
+  </si>
+  <si>
+    <t>AZIENDA 3</t>
+  </si>
+  <si>
+    <t>AZIENDA 4</t>
+  </si>
+  <si>
+    <t>AZIENDA 5</t>
+  </si>
+  <si>
+    <t>Est_Neg_/_Vendite totali</t>
+  </si>
+  <si>
+    <t>Multe_ /_Importo finale</t>
+  </si>
+  <si>
+    <t>Importo finale_/_Importo iniziale</t>
+  </si>
+  <si>
+    <t>Processi circolari_/_importo finale</t>
+  </si>
+  <si>
+    <t>RSI_/_importo finale</t>
   </si>
 </sst>
 </file>
@@ -180,7 +214,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +253,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +317,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,6 +600,181 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1843,7 +2075,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>38</v>
       </c>
@@ -1992,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00BF22C-9FC4-4600-8610-1CC6CD596006}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2280,7 @@
         <v>27</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>29</v>
@@ -2608,231 +2840,303 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="21" t="s">
-        <v>13</v>
+      <c r="B7" s="4">
+        <v>545</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>200</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>105</v>
+      </c>
+      <c r="O7" s="13">
+        <v>94.75</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>262.625</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>1.1919354838709677</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>0.1834862385321101</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>0.38532110091743121</v>
+      </c>
+      <c r="AE7" s="26">
+        <v>0.37614678899082571</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>168.52500000000001</v>
+      </c>
+      <c r="AG7" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>13</v>
+      <c r="B8" s="4">
+        <v>395</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>300</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>45</v>
+      </c>
+      <c r="P8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>387.5</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>100</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="23">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>1.482258064516129</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="26">
+        <v>0.50632911392405067</v>
+      </c>
+      <c r="AD8" s="29">
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="AE8" s="26">
+        <v>0.51898734177215189</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>205.02083333333334</v>
+      </c>
+      <c r="AG8" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="21" t="s">
-        <v>13</v>
+      <c r="B9" s="35">
+        <v>645</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>300</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>300</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>300</v>
+      </c>
+      <c r="K9" s="4">
+        <v>200</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>435</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>292.5</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <v>100</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="21">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="23">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>1.4609890109890109</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="26">
+        <v>0.46511627906976744</v>
+      </c>
+      <c r="AD9" s="29">
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="AE9" s="26">
+        <v>0.31782945736434109</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>217.51785714285714</v>
+      </c>
+      <c r="AG9" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2854,9 +3158,7 @@
       <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2911,6 +3213,14 @@
       <c r="Y10" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="34"/>
     </row>
     <row r="11" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -2988,6 +3298,14 @@
       <c r="Y11" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="34"/>
     </row>
     <row r="12" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -3065,9 +3383,1196 @@
       <c r="Y12" s="21" t="s">
         <v>13</v>
       </c>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="34"/>
     </row>
     <row r="13" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4EDDA6-F056-43F7-ACE5-868C501155E7}">
+  <dimension ref="A2:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="40">
+        <v>1</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D4" s="43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0.15326251896813353</v>
+      </c>
+      <c r="I4" s="48">
+        <v>-240</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="40">
+        <v>1</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0</v>
+      </c>
+      <c r="H5" s="43">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I5" s="48">
+        <v>-300</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="40">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D6" s="43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0</v>
+      </c>
+      <c r="H6" s="43">
+        <v>0.12640801001251564</v>
+      </c>
+      <c r="I6" s="48">
+        <v>-100</v>
+      </c>
+      <c r="J6" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="40">
+        <v>1</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0.878</v>
+      </c>
+      <c r="D7" s="43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.11617312072892938</v>
+      </c>
+      <c r="I7" s="48">
+        <v>-20</v>
+      </c>
+      <c r="J7" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="51">
+        <v>2</v>
+      </c>
+      <c r="C8" s="52">
+        <v>0.44</v>
+      </c>
+      <c r="D8" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="53">
+        <v>0</v>
+      </c>
+      <c r="G8" s="54">
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="H8" s="53">
+        <v>0.34090909090909088</v>
+      </c>
+      <c r="I8" s="55">
+        <v>67.5</v>
+      </c>
+      <c r="J8" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="51">
+        <v>2</v>
+      </c>
+      <c r="C9" s="52">
+        <v>0.437</v>
+      </c>
+      <c r="D9" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
+        <v>0.23340961098398169</v>
+      </c>
+      <c r="G9" s="54">
+        <v>0</v>
+      </c>
+      <c r="H9" s="53">
+        <v>0.2311212814645309</v>
+      </c>
+      <c r="I9" s="55">
+        <v>-82.724999999999994</v>
+      </c>
+      <c r="J9" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="51">
+        <v>2</v>
+      </c>
+      <c r="C10" s="52">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D10" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0</v>
+      </c>
+      <c r="G10" s="54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10" s="53">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I10" s="55">
+        <v>-121.875</v>
+      </c>
+      <c r="J10" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="51">
+        <v>2</v>
+      </c>
+      <c r="C11" s="52">
+        <v>0.498</v>
+      </c>
+      <c r="D11" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0</v>
+      </c>
+      <c r="F11" s="53">
+        <v>0.40361445783132532</v>
+      </c>
+      <c r="G11" s="54">
+        <v>0.20080321285140562</v>
+      </c>
+      <c r="H11" s="53">
+        <v>0.20281124497991967</v>
+      </c>
+      <c r="I11" s="55">
+        <v>90.512499999999989</v>
+      </c>
+      <c r="J11" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="51">
+        <v>2</v>
+      </c>
+      <c r="C12" s="52">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D12" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0</v>
+      </c>
+      <c r="F12" s="53">
+        <v>4.5207956600361664E-2</v>
+      </c>
+      <c r="G12" s="54">
+        <v>0</v>
+      </c>
+      <c r="H12" s="53">
+        <v>0.18444846292947559</v>
+      </c>
+      <c r="I12" s="55">
+        <v>-34.6875</v>
+      </c>
+      <c r="J12" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="59">
+        <v>3</v>
+      </c>
+      <c r="C13" s="60">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D13" s="61">
+        <v>-0.2</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0</v>
+      </c>
+      <c r="G13" s="62">
+        <v>0.3925233644859813</v>
+      </c>
+      <c r="H13" s="61">
+        <v>0.38317757009345793</v>
+      </c>
+      <c r="I13" s="63">
+        <v>106.66666666666667</v>
+      </c>
+      <c r="J13" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="59">
+        <v>3</v>
+      </c>
+      <c r="C14" s="60">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="D14" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="G14" s="62">
+        <v>0</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.86324786324786329</v>
+      </c>
+      <c r="I14" s="63">
+        <v>-20.299999999999997</v>
+      </c>
+      <c r="J14" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="59">
+        <v>3</v>
+      </c>
+      <c r="C15" s="60">
+        <v>0.123</v>
+      </c>
+      <c r="D15" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="60">
+        <v>1.6260162601626016</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="62">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="H15" s="61">
+        <v>1.6422764227642277</v>
+      </c>
+      <c r="I15" s="63">
+        <v>-55.416666666666664</v>
+      </c>
+      <c r="J15" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="59">
+        <v>3</v>
+      </c>
+      <c r="C16" s="60">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D16" s="61">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0.36745886654478976</v>
+      </c>
+      <c r="G16" s="62">
+        <v>0.18281535648994515</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.36928702010968922</v>
+      </c>
+      <c r="I16" s="63">
+        <v>152.34166666666667</v>
+      </c>
+      <c r="J16" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="59">
+        <v>3</v>
+      </c>
+      <c r="C17" s="60">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D17" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>5.8411214953271028E-2</v>
+      </c>
+      <c r="G17" s="62">
+        <v>5.8411214953271028E-2</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.4719626168224299</v>
+      </c>
+      <c r="I17" s="63">
+        <v>-8.5416666666666661</v>
+      </c>
+      <c r="J17" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="66">
+        <v>4</v>
+      </c>
+      <c r="C18" s="67">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="68">
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="E18" s="67">
+        <v>0</v>
+      </c>
+      <c r="F18" s="68">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G18" s="69">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H18" s="68">
+        <v>0.27333333333333332</v>
+      </c>
+      <c r="I18" s="70">
+        <v>145</v>
+      </c>
+      <c r="J18" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="66">
+        <v>4</v>
+      </c>
+      <c r="C19" s="67">
+        <v>0.434</v>
+      </c>
+      <c r="D19" s="68">
+        <v>5.2979999999999992</v>
+      </c>
+      <c r="E19" s="67">
+        <v>0</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0.23502304147465439</v>
+      </c>
+      <c r="G19" s="69">
+        <v>0</v>
+      </c>
+      <c r="H19" s="68">
+        <v>0.46543778801843316</v>
+      </c>
+      <c r="I19" s="70">
+        <v>22.775000000000002</v>
+      </c>
+      <c r="J19" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="66">
+        <v>4</v>
+      </c>
+      <c r="C20" s="67">
+        <v>1.0335000000000001</v>
+      </c>
+      <c r="D20" s="68">
+        <v>2.6367407407407408</v>
+      </c>
+      <c r="E20" s="67">
+        <v>0.19351717464925011</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0</v>
+      </c>
+      <c r="G20" s="69">
+        <v>7.2568940493468792E-2</v>
+      </c>
+      <c r="H20" s="68">
+        <v>0.19545234639574263</v>
+      </c>
+      <c r="I20" s="70">
+        <v>-64.362499999999997</v>
+      </c>
+      <c r="J20" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="66">
+        <v>4</v>
+      </c>
+      <c r="C21" s="67">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D21" s="68">
+        <v>2.8994999999999997</v>
+      </c>
+      <c r="E21" s="67">
+        <v>0</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0.31066460587326122</v>
+      </c>
+      <c r="G21" s="69">
+        <v>0.15455950540958269</v>
+      </c>
+      <c r="H21" s="68">
+        <v>0.31221020092735702</v>
+      </c>
+      <c r="I21" s="70">
+        <v>177.00624999999999</v>
+      </c>
+      <c r="J21" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="66">
+        <v>4</v>
+      </c>
+      <c r="C22" s="67">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D22" s="68" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="67">
+        <v>0</v>
+      </c>
+      <c r="F22" s="68">
+        <v>8.2508250825082508E-2</v>
+      </c>
+      <c r="G22" s="69">
+        <v>8.2508250825082508E-2</v>
+      </c>
+      <c r="H22" s="68">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I22" s="70">
+        <v>-2.96875</v>
+      </c>
+      <c r="J22" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="74">
+        <v>5</v>
+      </c>
+      <c r="C23" s="75">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D23" s="76">
+        <v>1.1919354838709677</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0</v>
+      </c>
+      <c r="F23" s="76">
+        <v>0.1834862385321101</v>
+      </c>
+      <c r="G23" s="77">
+        <v>0.38532110091743121</v>
+      </c>
+      <c r="H23" s="76">
+        <v>0.37614678899082571</v>
+      </c>
+      <c r="I23" s="78">
+        <v>168.52500000000001</v>
+      </c>
+      <c r="J23" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="74">
+        <v>5</v>
+      </c>
+      <c r="C24" s="75">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D24" s="76">
+        <v>5.1969999999999992</v>
+      </c>
+      <c r="E24" s="75">
+        <v>0</v>
+      </c>
+      <c r="F24" s="76">
+        <v>0.875</v>
+      </c>
+      <c r="G24" s="77">
+        <v>0</v>
+      </c>
+      <c r="H24" s="76">
+        <v>0.87068965517241381</v>
+      </c>
+      <c r="I24" s="78">
+        <v>59.830000000000005</v>
+      </c>
+      <c r="J24" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="74">
+        <v>5</v>
+      </c>
+      <c r="C25" s="75">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="D25" s="76">
+        <v>2.0142222222222221</v>
+      </c>
+      <c r="E25" s="75">
+        <v>0.31670625494853522</v>
+      </c>
+      <c r="F25" s="76">
+        <v>0.31987331749802056</v>
+      </c>
+      <c r="G25" s="77">
+        <v>0.11876484560570071</v>
+      </c>
+      <c r="H25" s="76">
+        <v>0.31987331749802056</v>
+      </c>
+      <c r="I25" s="78">
+        <v>44.92</v>
+      </c>
+      <c r="J25" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="74">
+        <v>5</v>
+      </c>
+      <c r="C26" s="75">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D26" s="76">
+        <v>1.5996666666666666</v>
+      </c>
+      <c r="E26" s="75">
+        <v>0</v>
+      </c>
+      <c r="F26" s="76">
+        <v>0.28837876614060259</v>
+      </c>
+      <c r="G26" s="77">
+        <v>0.14347202295552366</v>
+      </c>
+      <c r="H26" s="76">
+        <v>0.2898134863701578</v>
+      </c>
+      <c r="I26" s="78">
+        <v>216.80500000000001</v>
+      </c>
+      <c r="J26" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="74">
+        <v>5</v>
+      </c>
+      <c r="C27" s="75">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D27" s="76">
+        <v>1.6583333333333334</v>
+      </c>
+      <c r="E27" s="75">
+        <v>0</v>
+      </c>
+      <c r="F27" s="76">
+        <v>5.518763796909492E-2</v>
+      </c>
+      <c r="G27" s="77">
+        <v>0.717439293598234</v>
+      </c>
+      <c r="H27" s="76">
+        <v>0.44591611479028698</v>
+      </c>
+      <c r="I27" s="78">
+        <v>37.625</v>
+      </c>
+      <c r="J27" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="82">
+        <v>6</v>
+      </c>
+      <c r="C28" s="83">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D28" s="84">
+        <v>1.482258064516129</v>
+      </c>
+      <c r="E28" s="83">
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
+        <v>0.50632911392405067</v>
+      </c>
+      <c r="G28" s="85">
+        <v>0.53164556962025311</v>
+      </c>
+      <c r="H28" s="84">
+        <v>0.51898734177215189</v>
+      </c>
+      <c r="I28" s="86">
+        <v>205.02083333333334</v>
+      </c>
+      <c r="J28" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="82">
+        <v>6</v>
+      </c>
+      <c r="C29" s="83">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D29" s="84">
+        <v>2.0787999999999998</v>
+      </c>
+      <c r="E29" s="83">
+        <v>0</v>
+      </c>
+      <c r="F29" s="84">
+        <v>0.38157894736842107</v>
+      </c>
+      <c r="G29" s="85">
+        <v>0</v>
+      </c>
+      <c r="H29" s="84">
+        <v>0.37969924812030076</v>
+      </c>
+      <c r="I29" s="86">
+        <v>96.191666666666677</v>
+      </c>
+      <c r="J29" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="82">
+        <v>6</v>
+      </c>
+      <c r="C30" s="83">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="D30" s="84">
+        <v>1.4216296296296296</v>
+      </c>
+      <c r="E30" s="83">
+        <v>0.86393088552915764</v>
+      </c>
+      <c r="F30" s="84">
+        <v>0.87257019438444927</v>
+      </c>
+      <c r="G30" s="85">
+        <v>0.32397408207343414</v>
+      </c>
+      <c r="H30" s="84">
+        <v>0.87257019438444927</v>
+      </c>
+      <c r="I30" s="86">
+        <v>125.26666666666667</v>
+      </c>
+      <c r="J30" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="82">
+        <v>6</v>
+      </c>
+      <c r="C31" s="83">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D31" s="84">
+        <v>1.5963333333333332</v>
+      </c>
+      <c r="E31" s="83">
+        <v>0</v>
+      </c>
+      <c r="F31" s="84">
+        <v>0.36813186813186816</v>
+      </c>
+      <c r="G31" s="85">
+        <v>0.36813186813186816</v>
+      </c>
+      <c r="H31" s="84">
+        <v>0.36996336996336998</v>
+      </c>
+      <c r="I31" s="86">
+        <v>239.29583333333335</v>
+      </c>
+      <c r="J31" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="82">
+        <v>6</v>
+      </c>
+      <c r="C32" s="83">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D32" s="84">
+        <v>0.82916666666666672</v>
+      </c>
+      <c r="E32" s="83">
+        <v>0</v>
+      </c>
+      <c r="F32" s="84">
+        <v>4.1459369817578771E-2</v>
+      </c>
+      <c r="G32" s="85">
+        <v>1.0364842454394694</v>
+      </c>
+      <c r="H32" s="84">
+        <v>0.33499170812603646</v>
+      </c>
+      <c r="I32" s="86">
+        <v>114.6875</v>
+      </c>
+      <c r="J32" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="90">
+        <v>7</v>
+      </c>
+      <c r="C33" s="91">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D33" s="92">
+        <v>1.4609890109890109</v>
+      </c>
+      <c r="E33" s="91">
+        <v>0</v>
+      </c>
+      <c r="F33" s="92">
+        <v>0.46511627906976744</v>
+      </c>
+      <c r="G33" s="93">
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="H33" s="92">
+        <v>0.31782945736434109</v>
+      </c>
+      <c r="I33" s="94">
+        <v>217.51785714285714</v>
+      </c>
+      <c r="J33" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="90">
+        <v>7</v>
+      </c>
+      <c r="C34" s="91">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="D34" s="92">
+        <v>2.0387999999999997</v>
+      </c>
+      <c r="E34" s="91">
+        <v>0</v>
+      </c>
+      <c r="F34" s="92">
+        <v>-0.7574626865671642</v>
+      </c>
+      <c r="G34" s="93">
+        <v>0</v>
+      </c>
+      <c r="H34" s="92">
+        <v>-0.75373134328358204</v>
+      </c>
+      <c r="I34" s="94">
+        <v>122.87857142857145</v>
+      </c>
+      <c r="J34" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="90">
+        <v>7</v>
+      </c>
+      <c r="C35" s="91">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="D35" s="92">
+        <v>0.87404651162790692</v>
+      </c>
+      <c r="E35" s="91">
+        <v>1.520912547528517</v>
+      </c>
+      <c r="F35" s="92">
+        <v>1.5361216730038023</v>
+      </c>
+      <c r="G35" s="93">
+        <v>0.57034220532319391</v>
+      </c>
+      <c r="H35" s="92">
+        <v>1.5361216730038023</v>
+      </c>
+      <c r="I35" s="94">
+        <v>161.94285714285712</v>
+      </c>
+      <c r="J35" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="90">
+        <v>7</v>
+      </c>
+      <c r="C36" s="91">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D36" s="92">
+        <v>1.3219999999999998</v>
+      </c>
+      <c r="E36" s="91">
+        <v>0</v>
+      </c>
+      <c r="F36" s="92">
+        <v>4.1875</v>
+      </c>
+      <c r="G36" s="93">
+        <v>2.09375</v>
+      </c>
+      <c r="H36" s="92">
+        <v>2.1041666666666665</v>
+      </c>
+      <c r="I36" s="94">
+        <v>289.47142857142859</v>
+      </c>
+      <c r="J36" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="90">
+        <v>7</v>
+      </c>
+      <c r="C37" s="91">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D37" s="92">
+        <v>0.35425311203319504</v>
+      </c>
+      <c r="E37" s="91">
+        <v>0</v>
+      </c>
+      <c r="F37" s="92">
+        <v>0.16778523489932887</v>
+      </c>
+      <c r="G37" s="93">
+        <v>7.550335570469799</v>
+      </c>
+      <c r="H37" s="92">
+        <v>1.3557046979865772</v>
+      </c>
+      <c r="I37" s="94">
+        <v>232.44642857142858</v>
+      </c>
+      <c r="J37" s="95">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dati.xlsx
+++ b/dati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nballari\wpy\notebook\docs\test_prove\cruscotto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nballari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0F6FD-DD6A-4E5B-9DBE-7BE6250461BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B4F86-524E-4A4F-BDA5-DF0F62E58C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-510" windowWidth="29040" windowHeight="15840" tabRatio="466" activeTab="2" xr2:uid="{6653B1A9-396C-4738-AC4E-0997E5E5EA04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="466" activeTab="2" xr2:uid="{6653B1A9-396C-4738-AC4E-0997E5E5EA04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="56">
   <si>
     <t>AZIENDA 1</t>
   </si>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,6 +758,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2222,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00BF22C-9FC4-4600-8610-1CC6CD596006}">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,88 +3201,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:33" s="97" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="98">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="34"/>
+      <c r="B10" s="99">
+        <v>305</v>
+      </c>
+      <c r="C10" s="99">
+        <v>0</v>
+      </c>
+      <c r="D10" s="100">
+        <v>0</v>
+      </c>
+      <c r="E10" s="99">
+        <v>200</v>
+      </c>
+      <c r="F10" s="100">
+        <v>0</v>
+      </c>
+      <c r="G10" s="99">
+        <v>0</v>
+      </c>
+      <c r="H10" s="100">
+        <v>3</v>
+      </c>
+      <c r="I10" s="99">
+        <v>1</v>
+      </c>
+      <c r="J10" s="101">
+        <v>500</v>
+      </c>
+      <c r="K10" s="99">
+        <v>0</v>
+      </c>
+      <c r="L10" s="100">
+        <v>0</v>
+      </c>
+      <c r="M10" s="99">
+        <v>0</v>
+      </c>
+      <c r="N10" s="100">
+        <v>0</v>
+      </c>
+      <c r="O10" s="102">
+        <v>-20</v>
+      </c>
+      <c r="P10" s="103">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="99">
+        <v>640</v>
+      </c>
+      <c r="R10" s="100">
+        <v>0</v>
+      </c>
+      <c r="S10" s="99">
+        <v>240</v>
+      </c>
+      <c r="T10" s="101">
+        <v>0</v>
+      </c>
+      <c r="U10" s="104">
+        <v>0</v>
+      </c>
+      <c r="V10" s="101">
+        <v>0</v>
+      </c>
+      <c r="W10" s="99">
+        <v>0</v>
+      </c>
+      <c r="X10" s="101">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="105">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="106">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AA10" s="107">
+        <v>1.417</v>
+      </c>
+      <c r="AB10" s="106">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="107">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AD10" s="108">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="AE10" s="107">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AF10" s="109">
+        <v>270.3</v>
+      </c>
+      <c r="AG10" s="110">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -3393,6 +3473,24 @@
       <c r="AG12" s="34"/>
     </row>
     <row r="13" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X18" s="96"/>
+    </row>
+    <row r="19" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X19" s="96"/>
+    </row>
+    <row r="20" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X20" s="96"/>
+    </row>
+    <row r="21" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X21" s="96"/>
+    </row>
+    <row r="22" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X22" s="96"/>
+    </row>
+    <row r="23" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X23" s="96"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3400,10 +3498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4EDDA6-F056-43F7-ACE5-868C501155E7}">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,6 +4670,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="112">
+        <v>8</v>
+      </c>
+      <c r="C38" s="113">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D38" s="114">
+        <v>1.4170329670329671</v>
+      </c>
+      <c r="E38" s="113">
+        <v>0</v>
+      </c>
+      <c r="F38" s="114">
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="G38" s="115">
+        <v>1.4754098360655739</v>
+      </c>
+      <c r="H38" s="114">
+        <v>0.67213114754098358</v>
+      </c>
+      <c r="I38" s="116">
+        <v>270.328125</v>
+      </c>
+      <c r="J38" s="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="112">
+        <v>8</v>
+      </c>
+      <c r="C39" s="113">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="D39" s="114">
+        <v>1.8287999999999998</v>
+      </c>
+      <c r="E39" s="113">
+        <v>0</v>
+      </c>
+      <c r="F39" s="114">
+        <v>-0.6875</v>
+      </c>
+      <c r="G39" s="115">
+        <v>0</v>
+      </c>
+      <c r="H39" s="114">
+        <v>-0.54891304347826086</v>
+      </c>
+      <c r="I39" s="116">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="J39" s="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="112">
+        <v>8</v>
+      </c>
+      <c r="C40" s="113">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="D40" s="114">
+        <v>0.85544186046511617</v>
+      </c>
+      <c r="E40" s="113">
+        <v>4.8192771084337354</v>
+      </c>
+      <c r="F40" s="114">
+        <v>4.8674698795180724</v>
+      </c>
+      <c r="G40" s="115">
+        <v>1.8072289156626506</v>
+      </c>
+      <c r="H40" s="114">
+        <v>4.8674698795180724</v>
+      </c>
+      <c r="I40" s="116">
+        <v>180.07499999999999</v>
+      </c>
+      <c r="J40" s="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="112">
+        <v>8</v>
+      </c>
+      <c r="C41" s="113">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D41" s="114">
+        <v>1.2169999999999999</v>
+      </c>
+      <c r="E41" s="113">
+        <v>0</v>
+      </c>
+      <c r="F41" s="114">
+        <v>7.5357142857142856</v>
+      </c>
+      <c r="G41" s="115">
+        <v>3.5892857142857144</v>
+      </c>
+      <c r="H41" s="114">
+        <v>3.6071428571428572</v>
+      </c>
+      <c r="I41" s="116">
+        <v>333.72500000000002</v>
+      </c>
+      <c r="J41" s="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="112">
+        <v>8</v>
+      </c>
+      <c r="C42" s="113">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D42" s="114">
+        <v>0.33973029045643155</v>
+      </c>
+      <c r="E42" s="113">
+        <v>0</v>
+      </c>
+      <c r="F42" s="114">
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="G42" s="115">
+        <v>125</v>
+      </c>
+      <c r="H42" s="114">
+        <v>22.444444444444443</v>
+      </c>
+      <c r="I42" s="116">
+        <v>352.578125</v>
+      </c>
+      <c r="J42" s="117">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dati.xlsx
+++ b/dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nballari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83258859-6323-4AB2-916E-21B7A6AE9741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF6DBA-0D5E-485E-8800-ABCEF4329BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="466" activeTab="2" xr2:uid="{6653B1A9-396C-4738-AC4E-0997E5E5EA04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
   <si>
     <t>AZIENDA 1</t>
   </si>
@@ -2285,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00BF22C-9FC4-4600-8610-1CC6CD596006}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,86 +3406,102 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="34"/>
+      <c r="B12" s="98">
+        <v>2010</v>
+      </c>
+      <c r="C12" s="98">
+        <v>0</v>
+      </c>
+      <c r="D12" s="99">
+        <v>0</v>
+      </c>
+      <c r="E12" s="98">
+        <v>0</v>
+      </c>
+      <c r="F12" s="99">
+        <v>0</v>
+      </c>
+      <c r="G12" s="98">
+        <v>670</v>
+      </c>
+      <c r="H12" s="99">
+        <v>3</v>
+      </c>
+      <c r="I12" s="98">
+        <v>1</v>
+      </c>
+      <c r="J12" s="100">
+        <v>0</v>
+      </c>
+      <c r="K12" s="98">
+        <v>0</v>
+      </c>
+      <c r="L12" s="99">
+        <v>0</v>
+      </c>
+      <c r="M12" s="98">
+        <v>0</v>
+      </c>
+      <c r="N12" s="99">
+        <v>0</v>
+      </c>
+      <c r="O12" s="101">
+        <v>465</v>
+      </c>
+      <c r="P12" s="102">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="98">
+        <v>695</v>
+      </c>
+      <c r="R12" s="99">
+        <v>0</v>
+      </c>
+      <c r="S12" s="98">
+        <v>0</v>
+      </c>
+      <c r="T12" s="100">
+        <v>205</v>
+      </c>
+      <c r="U12" s="103">
+        <v>0</v>
+      </c>
+      <c r="V12" s="100">
+        <v>0</v>
+      </c>
+      <c r="W12" s="98">
+        <v>0</v>
+      </c>
+      <c r="X12" s="100">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="104">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="112">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AA12" s="113">
+        <v>1.0053333333333334</v>
+      </c>
+      <c r="AB12" s="112">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="113">
+        <v>0.18656716417910449</v>
+      </c>
+      <c r="AD12" s="114">
+        <v>0.22388059701492538</v>
+      </c>
+      <c r="AE12" s="113">
+        <v>0.10199004975124377</v>
+      </c>
+      <c r="AF12" s="115">
+        <v>367.2</v>
+      </c>
+      <c r="AG12" s="116">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3495,10 +3511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4EDDA6-F056-43F7-ACE5-868C501155E7}">
-  <dimension ref="A2:J47"/>
+  <dimension ref="A2:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B48" sqref="B48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4987,6 +5003,166 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="111">
+        <v>10</v>
+      </c>
+      <c r="C48" s="112">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D48" s="113">
+        <v>1.0053333333333334</v>
+      </c>
+      <c r="E48" s="112">
+        <v>0</v>
+      </c>
+      <c r="F48" s="113">
+        <v>0.18656716417910449</v>
+      </c>
+      <c r="G48" s="114">
+        <v>0.22388059701492538</v>
+      </c>
+      <c r="H48" s="113">
+        <v>0.10199004975124377</v>
+      </c>
+      <c r="I48" s="115">
+        <v>367.2</v>
+      </c>
+      <c r="J48" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="111">
+        <v>10</v>
+      </c>
+      <c r="C49" s="112">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D49" s="113">
+        <v>0.8328333333333332</v>
+      </c>
+      <c r="E49" s="112">
+        <v>0</v>
+      </c>
+      <c r="F49" s="113">
+        <v>1.7370689655172413</v>
+      </c>
+      <c r="G49" s="114">
+        <v>0</v>
+      </c>
+      <c r="H49" s="113">
+        <v>0.87068965517241381</v>
+      </c>
+      <c r="I49" s="115">
+        <v>209.91500000000002</v>
+      </c>
+      <c r="J49" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="111">
+        <v>10</v>
+      </c>
+      <c r="C50" s="112">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="113">
+        <v>0.68793522267206475</v>
+      </c>
+      <c r="E50" s="112">
+        <v>2</v>
+      </c>
+      <c r="F50" s="113">
+        <v>2.72</v>
+      </c>
+      <c r="G50" s="114">
+        <v>0.75</v>
+      </c>
+      <c r="H50" s="113">
+        <v>2.02</v>
+      </c>
+      <c r="I50" s="115">
+        <v>213.785</v>
+      </c>
+      <c r="J50" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="111">
+        <v>10</v>
+      </c>
+      <c r="C51" s="112">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D51" s="113">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="E51" s="112">
+        <v>0</v>
+      </c>
+      <c r="F51" s="113">
+        <v>0.80228136882129275</v>
+      </c>
+      <c r="G51" s="114">
+        <v>0.38212927756653992</v>
+      </c>
+      <c r="H51" s="113">
+        <v>0.38403041825095058</v>
+      </c>
+      <c r="I51" s="115">
+        <v>394.58000000000004</v>
+      </c>
+      <c r="J51" s="116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="111">
+        <v>10</v>
+      </c>
+      <c r="C52" s="112">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D52" s="113">
+        <v>0.6033898305084745</v>
+      </c>
+      <c r="E52" s="112">
+        <v>0</v>
+      </c>
+      <c r="F52" s="113">
+        <v>0.23536299765807964</v>
+      </c>
+      <c r="G52" s="114">
+        <v>1.3173302107728337</v>
+      </c>
+      <c r="H52" s="113">
+        <v>0.23653395784543327</v>
+      </c>
+      <c r="I52" s="115">
+        <v>516.93000000000006</v>
+      </c>
+      <c r="J52" s="116">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
